--- a/biology/Histoire de la zoologie et de la botanique/Johann_Gottlob_Schneider/Johann_Gottlob_Schneider.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Gottlob_Schneider/Johann_Gottlob_Schneider.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johann Gottlob Theaenus Schneider est un philologue et un naturaliste saxon, né le 18 janvier 1750 à Kollmen (aujourd'hui Collm, Ortsteil de Wermsdorf) près d'Oschatz à l'est de Leipzig et mort le 12 janvier 1822 à Breslau[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johann Gottlob Theaenus Schneider est un philologue et un naturaliste saxon, né le 18 janvier 1750 à Kollmen (aujourd'hui Collm, Ortsteil de Wermsdorf) près d'Oschatz à l'est de Leipzig et mort le 12 janvier 1822 à Breslau.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la philologie, notamment les auteurs classiques grecs, et l'histoire naturelle à l'université de Leipzig, puis à celle Göttingen et enfin à celle de Strasbourg, où il obtient son titre de docteur en 1774.
 Sur les recommandations de Christian Gottlob Heyne (1729-1812), il devient le secrétaire de Richard François Philippe Brunck (1729-1803), grand spécialiste de la littérature antique.
@@ -551,7 +565,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Handwörterbuch der griechischen Sprache, Vogel, Leipzig 1828.
 Griechisch-deutsches Wörterbuch. Hahn, Leipzig 1819.
